--- a/biology/Origine et évolution du vivant/Wuchiapingien/Wuchiapingien.xlsx
+++ b/biology/Origine et évolution du vivant/Wuchiapingien/Wuchiapingien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Wuchiapingien /wučʰjapʰiŋjẽ/ (de 259,51 ±0,21 à 254,14 ± 0,07 millions d'années) est le premier étage géologique du Lopingien dans le système du Permien[1],[2]. Il doit son nom à la ville de Wuchiaping dans la province chinoise du Gansu. Il est aussi connu sous les dénominations de Wujiapingien, Djulfien, Dzhulfien, ou Kazanien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Wuchiapingien /wučʰjapʰiŋjẽ/ (de 259,51 ±0,21 à 254,14 ± 0,07 millions d'années) est le premier étage géologique du Lopingien dans le système du Permien,. Il doit son nom à la ville de Wuchiaping dans la province chinoise du Gansu. Il est aussi connu sous les dénominations de Wujiapingien, Djulfien, Dzhulfien, ou Kazanien.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sommet du Capitanien (qui est aussi la base de la série du Wuchiapingien et de l'étage du Lopingien) est défini comme la place dans les enregistrements stratigraphiques où Clarkina postbitteri postbitteri fait son apparition.
 Le sommet du Wuchiapingien (qui est aussi la base du Changhsingien) est placé à la première apparition de l'espèce de conodontes Clarkina wangi.
